--- a/files/3-курс-бакалавриат-ОФО-50.xlsx
+++ b/files/3-курс-бакалавриат-ОФО-50.xlsx
@@ -14179,7 +14179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K79"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
@@ -27396,7 +27396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L60"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30245,6 +30245,7 @@
         </is>
       </c>
     </row>
+    <row r="57"/>
     <row r="58">
       <c r="E58" t="inlineStr">
         <is>
@@ -30371,6 +30372,30 @@
         </is>
       </c>
     </row>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/3-курс-бакалавриат-ОФО-50.xlsx
+++ b/files/3-курс-бакалавриат-ОФО-50.xlsx
@@ -14179,7 +14179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="B1:K79"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
@@ -27396,7 +27396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L84"/>
+  <dimension ref="B1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30245,7 +30245,6 @@
         </is>
       </c>
     </row>
-    <row r="57"/>
     <row r="58">
       <c r="E58" t="inlineStr">
         <is>
@@ -30372,30 +30371,6 @@
         </is>
       </c>
     </row>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
